--- a/data/case1/18/Q_device_11.xlsx
+++ b/data/case1/18/Q_device_11.xlsx
@@ -57,31 +57,31 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.010935125483565185</v>
+        <v>-0.011301948780632841</v>
       </c>
       <c r="B1" s="0">
-        <v>0.010935125450018835</v>
+        <v>0.011301948710674057</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.038477611685528712</v>
+        <v>0.037691755931607979</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.038477611704741572</v>
+        <v>-0.037691755971991592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.043555301806171821</v>
+        <v>-0.043642278934106556</v>
       </c>
       <c r="B3" s="0">
-        <v>0.043555301788065034</v>
+        <v>0.04364227889678806</v>
       </c>
     </row>
   </sheetData>
